--- a/characterization.xlsx
+++ b/characterization.xlsx
@@ -2759,7 +2759,7 @@
       </c>
       <c r="M10" s="179" t="n"/>
       <c r="N10" s="189" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="O10" s="190" t="n"/>
       <c r="P10" s="191" t="n">
